--- a/07-物料业务数据维护报表.xlsx
+++ b/07-物料业务数据维护报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C24DB2-9BEC-4898-B648-B8B7E789A511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A0C3C0-DC32-4527-B1FE-B3DF98B9D871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="84">
   <si>
     <t>物料类型</t>
   </si>
@@ -172,13 +172,79 @@
     <t>工厂特定物料状态</t>
   </si>
   <si>
+    <t>当前节点</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Z00001</t>
+  </si>
+  <si>
+    <t>300021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>9-归档</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>7900</t>
+  </si>
+  <si>
+    <t>300023</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
     <t>3000</t>
+  </si>
+  <si>
+    <t>NORM</t>
+  </si>
+  <si>
+    <t>ZRVM</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>PD物料需求计划</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>MB</t>
   </si>
   <si>
     <t>Z011</t>
@@ -568,16 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="50" width="23.5" customWidth="1"/>
+    <col min="1" max="51" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,309 +794,2488 @@
       <c r="AX1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="AO2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="AP2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AR2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="AU2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="AW2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" t="s">
         <v>56</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>50</v>
+      <c r="AU3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>50</v>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>51</v>
+      </c>
+      <c r="S14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" t="s">
+        <v>51</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
